--- a/database/industries/madani/shamla/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/madani/shamla/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\madani\shamla\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647BE3A1-B1C8-4C7B-BDE7-0C2AB6AE88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E67EE6E-4EA4-426B-A2B0-3DBDAD56C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>9 ماهه منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>12 ماهه منتهی به 1401/12</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-02-13 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-28 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-02-11 (8)</t>
+  </si>
+  <si>
+    <t>1400-05-12 (4)</t>
+  </si>
+  <si>
+    <t>1400-08-24 (4)</t>
+  </si>
+  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-02-27 (10)</t>
   </si>
   <si>
-    <t>1401-04-29</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-11-09 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -130,7 +190,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -618,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -632,9 +692,14 @@
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="12" width="28" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,8 +712,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,8 +738,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,8 +764,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,8 +788,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +814,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,8 +840,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,8 +864,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,44 +910,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,514 +1020,944 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>12821</v>
+      </c>
+      <c r="E11" s="13">
+        <v>18433</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4917</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10703</v>
+      </c>
+      <c r="H11" s="13">
+        <v>16583</v>
+      </c>
+      <c r="I11" s="13">
+        <v>22635</v>
+      </c>
+      <c r="J11" s="13">
+        <v>4558</v>
+      </c>
+      <c r="K11" s="13">
+        <v>8144</v>
+      </c>
+      <c r="L11" s="13">
         <v>11799</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>17522</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>6010</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>11368</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>16866</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>22755</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>5297</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>12048</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>18031</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>22801</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>5363</v>
+      </c>
+      <c r="W11" s="13">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-5169</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-6890</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1650</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-3528</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-5433</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-7274</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-1784</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-3169</v>
+      </c>
+      <c r="L12" s="11">
         <v>-4316</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-6396</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-2309</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-4516</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-7015</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-10741</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-2755</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-6024</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-8729</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-10939</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-2507</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-5149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>7652</v>
+      </c>
+      <c r="E13" s="15">
+        <v>11543</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3267</v>
+      </c>
+      <c r="G13" s="15">
+        <v>7175</v>
+      </c>
+      <c r="H13" s="15">
+        <v>11150</v>
+      </c>
+      <c r="I13" s="15">
+        <v>15361</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2774</v>
+      </c>
+      <c r="K13" s="15">
+        <v>4975</v>
+      </c>
+      <c r="L13" s="15">
         <v>7483</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>11125</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>3701</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>6852</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>9850</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>12014</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>2542</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>6024</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>9302</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>11862</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>2856</v>
+      </c>
+      <c r="W13" s="15">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-594</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-829</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-198</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-427</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-570</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-885</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-153</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-314</v>
+      </c>
+      <c r="L14" s="11">
         <v>-400</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-590</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-208</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-384</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-530</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-849</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-212</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-462</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-655</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-860</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-164</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-356</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11">
+        <v>10</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="11">
+        <v>62</v>
+      </c>
+      <c r="L16" s="11">
         <v>39</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>21</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-7</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>-11</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>-13</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>-30</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>16</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>64</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>87</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>-36</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>7055</v>
+      </c>
+      <c r="E17" s="15">
+        <v>10709</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3069</v>
+      </c>
+      <c r="G17" s="15">
+        <v>6748</v>
+      </c>
+      <c r="H17" s="15">
+        <v>10580</v>
+      </c>
+      <c r="I17" s="15">
+        <v>14486</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2621</v>
+      </c>
+      <c r="K17" s="15">
+        <v>4723</v>
+      </c>
+      <c r="L17" s="15">
         <v>7121</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>10557</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>3487</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>6457</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>9307</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>11136</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>2345</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>5626</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>8734</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>11195</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>2656</v>
+      </c>
+      <c r="W17" s="15">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-122</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-155</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-67</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-108</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-175</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-230</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-56</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-116</v>
+      </c>
+      <c r="L18" s="11">
         <v>-140</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-162</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-107</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-253</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-389</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-561</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-159</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-281</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-405</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-522</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-120</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>778</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1069</v>
+      </c>
+      <c r="F19" s="13">
+        <v>477</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1098</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1365</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2056</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1450</v>
+      </c>
+      <c r="K19" s="13">
+        <v>2105</v>
+      </c>
+      <c r="L19" s="13">
         <v>2285</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>2187</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>959</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>1024</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>1408</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>5109</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>866</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>1105</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>1245</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>1336</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>719</v>
+      </c>
+      <c r="W19" s="13">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>7710</v>
+      </c>
+      <c r="E20" s="17">
+        <v>11622</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3479</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7739</v>
+      </c>
+      <c r="H20" s="17">
+        <v>11770</v>
+      </c>
+      <c r="I20" s="17">
+        <v>16312</v>
+      </c>
+      <c r="J20" s="17">
+        <v>4015</v>
+      </c>
+      <c r="K20" s="17">
+        <v>6712</v>
+      </c>
+      <c r="L20" s="17">
         <v>9267</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>12581</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>4339</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>7228</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>10326</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>15684</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>3052</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>6451</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>9573</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>12009</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>3256</v>
+      </c>
+      <c r="W20" s="17">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-1111</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-1832</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-532</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-893</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2207</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-2247</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-602</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-776</v>
+      </c>
+      <c r="L21" s="13">
         <v>-1181</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-1962</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-490</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-765</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-1202</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-1559</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-327</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-777</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-1270</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-1151</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-367</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-864</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="17">
+        <v>9790</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2947</v>
+      </c>
+      <c r="G22" s="17">
+        <v>6845</v>
+      </c>
+      <c r="H22" s="17">
+        <v>9563</v>
+      </c>
+      <c r="I22" s="17">
+        <v>14065</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3413</v>
+      </c>
+      <c r="K22" s="17">
+        <v>5936</v>
+      </c>
+      <c r="L22" s="17">
         <v>8085</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>10619</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>3849</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>6463</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>9124</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>14125</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>2725</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>5673</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>8303</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>10858</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>2889</v>
+      </c>
+      <c r="W22" s="17">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="17">
+        <v>9790</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2947</v>
+      </c>
+      <c r="G24" s="17">
+        <v>6845</v>
+      </c>
+      <c r="H24" s="17">
+        <v>9563</v>
+      </c>
+      <c r="I24" s="17">
+        <v>14065</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3413</v>
+      </c>
+      <c r="K24" s="17">
+        <v>5936</v>
+      </c>
+      <c r="L24" s="17">
         <v>8085</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>10619</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>3849</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>6463</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>9124</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>14125</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>2725</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>5673</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>8303</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>10858</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>2889</v>
+      </c>
+      <c r="W24" s="17">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1365,46 +1990,106 @@
       <c r="M25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>2184</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2076</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3050</v>
+      </c>
+      <c r="G26" s="11">
+        <v>3280</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3365</v>
+      </c>
+      <c r="I26" s="11">
+        <v>3274</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2579</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2168</v>
+      </c>
+      <c r="L26" s="11">
         <v>3819</v>
       </c>
-      <c r="E26" s="11">
+      <c r="M26" s="11">
         <v>3715</v>
       </c>
-      <c r="F26" s="11">
+      <c r="N26" s="11">
         <v>3601</v>
       </c>
-      <c r="G26" s="11">
+      <c r="O26" s="11">
         <v>3390</v>
       </c>
-      <c r="H26" s="11">
+      <c r="P26" s="11">
         <v>3229</v>
       </c>
-      <c r="I26" s="11">
+      <c r="Q26" s="11">
         <v>3184</v>
       </c>
-      <c r="J26" s="11">
+      <c r="R26" s="11">
         <v>2859</v>
       </c>
-      <c r="K26" s="11">
+      <c r="S26" s="11">
         <v>8942</v>
       </c>
-      <c r="L26" s="11">
+      <c r="T26" s="11">
         <v>8491</v>
       </c>
-      <c r="M26" s="11">
+      <c r="U26" s="11">
         <v>7651</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="11">
+        <v>5240</v>
+      </c>
+      <c r="W26" s="11">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1437,8 +2122,38 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1451,6 +2166,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
